--- a/Documentation/SCRUM/TimeLog_Amer Aljamous.xlsx
+++ b/Documentation/SCRUM/TimeLog_Amer Aljamous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amerj\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E1A85-6E61-48C0-8699-2F440A3AEB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44ED21-91E5-4CD6-BC1A-ACF7F783B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>user Story 5 and 6 + backend meeting + local database installation</t>
+  </si>
+  <si>
+    <t>user story 10 +learning new libraries + Group meething</t>
+  </si>
+  <si>
+    <t>user story 7 + learning new libraries + Group meething</t>
   </si>
 </sst>
 </file>
@@ -498,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -781,8 +787,12 @@
         <f t="shared" si="1"/>
         <v>44901</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="12">
+        <v>6</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
@@ -800,8 +810,12 @@
         <f t="shared" si="1"/>
         <v>44908</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">

--- a/Documentation/SCRUM/TimeLog_Amer Aljamous.xlsx
+++ b/Documentation/SCRUM/TimeLog_Amer Aljamous.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amerj\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A44ED21-91E5-4CD6-BC1A-ACF7F783B417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853DBFF8-5104-4E52-9D15-1E3CA558F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -103,6 +106,12 @@
   </si>
   <si>
     <t>user story 7 + learning new libraries + Group meething</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> user story 7+8 + group meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user story 9 + 10 + group meeting </t>
   </si>
 </sst>
 </file>
@@ -504,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -833,8 +842,12 @@
         <f t="shared" si="1"/>
         <v>44915</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="12">
+        <v>12</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
@@ -852,8 +865,12 @@
         <f t="shared" si="1"/>
         <v>44922</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="12">
+        <v>16</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">

--- a/Documentation/SCRUM/TimeLog_Amer Aljamous.xlsx
+++ b/Documentation/SCRUM/TimeLog_Amer Aljamous.xlsx
@@ -8,26 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amerj\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853DBFF8-5104-4E52-9D15-1E3CA558F59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363E4586-179C-441B-B5D6-47ADBC79D7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -111,7 +100,16 @@
     <t xml:space="preserve"> user story 7+8 + group meeting </t>
   </si>
   <si>
-    <t xml:space="preserve">user story 9 + 10 + group meeting </t>
+    <t xml:space="preserve">user story 9 + 10 + 11  group meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user story 11 + 12 + 13 +  group meeting </t>
+  </si>
+  <si>
+    <t>user story 14+ 15   group meeting  + learning Websockets</t>
+  </si>
+  <si>
+    <t>user story 17+ 19   group meeting  + learning Websockets</t>
   </si>
 </sst>
 </file>
@@ -513,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -888,8 +886,12 @@
         <f t="shared" si="1"/>
         <v>44929</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="12">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
@@ -907,8 +909,12 @@
         <f t="shared" si="1"/>
         <v>44936</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="12">
+        <v>7</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
@@ -926,8 +932,12 @@
         <f t="shared" si="1"/>
         <v>44943</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="12">
+        <v>21</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
